--- a/routers/upload/发货联系人模版.xlsx
+++ b/routers/upload/发货联系人模版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stitch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\ntocc_web\routers\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2111DA76-DDF9-4423-8EC6-BFFDF17FCCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89D8D7-6169-4772-BA9E-FCF4DC04370F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="收货人导入" sheetId="3" r:id="rId1"/>
@@ -21,19 +21,13 @@
   <definedNames>
     <definedName name="省份">[1]Sheet2!$F$3208:$F$3238</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>卸货地址</t>
-  </si>
-  <si>
-    <t>卸货详细地址</t>
-  </si>
-  <si>
     <t>张玉杰</t>
   </si>
   <si>
@@ -60,6 +54,14 @@
   </si>
   <si>
     <t>山东省济南市天桥区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装货地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装货详细地址</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -79,6 +81,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -86,18 +89,19 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -427,59 +431,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/routers/upload/发货联系人模版.xlsx
+++ b/routers/upload/发货联系人模版.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\ntocc_web\routers\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89D8D7-6169-4772-BA9E-FCF4DC04370F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D790D4E-C687-47B2-9BAA-1907BBF0957F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="收货人导入" sheetId="3" r:id="rId1"/>
+    <sheet name="发货人导入" sheetId="3" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
